--- a/emailClassifier/TrainingSet.xlsx
+++ b/emailClassifier/TrainingSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bala\Desktop\Hackathon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F756496-B144-41E7-B05B-BEFAD0F29393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26D2F22-E6C5-4904-8704-C0DBE8E5924E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6CE565A4-1AF6-48F2-AB6A-78EE09F0F3BC}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="186">
   <si>
     <t>Request Type</t>
   </si>
@@ -246,12 +247,6 @@
     <t>Customer Communication</t>
   </si>
   <si>
-    <t>Notification Management</t>
-  </si>
-  <si>
-    <t>Email Communication</t>
-  </si>
-  <si>
     <t>SMS Alerts</t>
   </si>
   <si>
@@ -447,12 +442,6 @@
     <t>Please ensure that all loan-related documentation meets applicable regulatory standards.</t>
   </si>
   <si>
-    <t>Kindly send regular notifications regarding upcoming payment due dates and account updates.</t>
-  </si>
-  <si>
-    <t>We request email communication regarding changes to the loan agreement and account status.</t>
-  </si>
-  <si>
     <t>Please send SMS alerts for successful loan transactions and payment reminders.</t>
   </si>
   <si>
@@ -577,9 +566,6 @@
   </si>
   <si>
     <t>We request an evaluation of the credit risks associated with our loan application. Please provide an analysis of our financial health, repayment capacity, and the potential risks that may impact our ability to meet loan obligations.</t>
-  </si>
-  <si>
-    <t>We are remitting $20,000 as a SOFR Term repayment. Kindly adjust the loan details accordingly and notify us of the next repricing schedule.</t>
   </si>
   <si>
     <t xml:space="preserve">We would like to make a principal repayment of $10,000 under the SOFR Term option. Kindly confirm the updated principal balance and lender share adjustments.
@@ -969,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B8FE605-918E-41CA-9B4D-65D198F674F9}">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="120.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1001,7 +987,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1012,7 +998,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1023,7 +1009,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1034,7 +1020,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1045,7 +1031,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1056,7 +1042,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1067,7 +1053,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1078,7 +1064,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1089,7 +1075,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1100,7 +1086,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1111,7 +1097,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1122,7 +1108,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1133,7 +1119,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1144,106 +1130,106 @@
         <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C16" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C18" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1254,7 +1240,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -1265,7 +1251,7 @@
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1276,7 +1262,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1287,7 +1273,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1298,7 +1284,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1309,7 +1295,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1320,7 +1306,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1331,7 +1317,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1342,7 +1328,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1353,7 +1339,7 @@
         <v>34</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1364,7 +1350,7 @@
         <v>35</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1375,7 +1361,7 @@
         <v>36</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1386,7 +1372,7 @@
         <v>37</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1397,7 +1383,7 @@
         <v>39</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1408,7 +1394,7 @@
         <v>40</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1419,7 +1405,7 @@
         <v>41</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1430,7 +1416,7 @@
         <v>42</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1441,7 +1427,7 @@
         <v>44</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1452,7 +1438,7 @@
         <v>45</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1463,7 +1449,7 @@
         <v>46</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1474,7 +1460,7 @@
         <v>47</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1485,7 +1471,7 @@
         <v>49</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1496,7 +1482,7 @@
         <v>50</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1507,7 +1493,7 @@
         <v>51</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1518,7 +1504,7 @@
         <v>52</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1529,7 +1515,7 @@
         <v>54</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1540,7 +1526,7 @@
         <v>55</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -1551,7 +1537,7 @@
         <v>56</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1562,7 +1548,7 @@
         <v>57</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1573,7 +1559,7 @@
         <v>58</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1584,7 +1570,7 @@
         <v>59</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1595,7 +1581,7 @@
         <v>60</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1606,7 +1592,7 @@
         <v>61</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1617,7 +1603,7 @@
         <v>63</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1628,7 +1614,7 @@
         <v>64</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1639,7 +1625,7 @@
         <v>65</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1650,7 +1636,7 @@
         <v>66</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1661,7 +1647,7 @@
         <v>68</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -1672,7 +1658,7 @@
         <v>69</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -1683,7 +1669,7 @@
         <v>70</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -1694,7 +1680,7 @@
         <v>71</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -1705,7 +1691,7 @@
         <v>73</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -1716,249 +1702,216 @@
         <v>74</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="C72" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="C73" s="1" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="C75" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C77" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="C80" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+      <c r="C84" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>186</v>
+        <v>23</v>
+      </c>
+      <c r="C85" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="C86" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C87" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C88" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C89" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
